--- a/sqlserver2012/sql2012_ParamGenerator.xlsx
+++ b/sqlserver2012/sql2012_ParamGenerator.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$L$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="587">
   <si>
     <t>SQL Server component</t>
   </si>
@@ -2055,264 +2055,7 @@
     <t>Specify the location where SQL Server setup will obtain product updates. The valid values are “MU” to search Microsoft Update, a valid folder path, a relative path such as .\MyUpdates or a UNC share. By default, SQL Server setup will search Microsoft Update or a Windows Update Service through the Windows Server Update Services.</t>
   </si>
   <si>
-    <t>Default is %Program Files(x86)%\Microsoft SQL Server</t>
-  </si>
-  <si>
-    <t>Cannot be set to %Program Files%\Microsoft SQL Server</t>
-  </si>
-  <si>
-    <r>
-      <t>/UIMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> can only be used with the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ACTION=INSTALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UPGRADE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> parameters.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When combined with other parameters, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UIMODE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is overridden. For example, when </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/UIMODE=AutoAdvance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ADDCURRENTUSERASSQLADMIN=FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are both provided, the provisioning dialog box is not auto populated with the current user.</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies the directory for Analysis Services backup files.</t>
-  </si>
-  <si>
-    <t>Default values:</t>
-  </si>
-  <si>
-    <t>For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\ &lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Backup.</t>
-  </si>
-  <si>
-    <t>For all other installations: %Program Files%\Microsoft SQL Server\ &lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Backup.</t>
-  </si>
-  <si>
-    <t>Default value:</t>
-  </si>
-  <si>
-    <t>Latin1_General_CI_AS</t>
-  </si>
-  <si>
-    <t>Specifies the directory for Analysis Services configuration files.</t>
-  </si>
-  <si>
-    <t>For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\ &lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Config.</t>
-  </si>
-  <si>
-    <t>For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Config.</t>
-  </si>
-  <si>
-    <t>Specifies the directory for Analysis Services data files.</t>
-  </si>
-  <si>
-    <t>For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Data.</t>
-  </si>
-  <si>
-    <t>For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Data.</t>
-  </si>
-  <si>
-    <t>Specifies the directory for Analysis Services log files.</t>
-  </si>
-  <si>
-    <t>For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Log.</t>
-  </si>
-  <si>
-    <t>For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Log.</t>
-  </si>
-  <si>
     <t>Specifies the server mode of the Analysis Services instance. Valid values are MULTIDIMENSIONAL, POWERPIVOT or TABULAR. ASSERVERMODE is case-sensitive. All values must be expressed in upper case. For more information about valid values, see Install Analysis Services in Tabular Mode.</t>
-  </si>
-  <si>
-    <t>Specifies the startup mode for the Analysis Services service.</t>
-  </si>
-  <si>
-    <t>Specifies the directory for Analysis Services temporary files.</t>
-  </si>
-  <si>
-    <t>For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Temp.</t>
-  </si>
-  <si>
-    <t>For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Temp.</t>
-  </si>
-  <si>
-    <t>Specifies the startup mode for SQL Server Browser service.</t>
-  </si>
-  <si>
-    <t>Specifies the data directory for SQL Server data files.</t>
-  </si>
-  <si>
-    <t>For WOW mode on 64-bit:%Program Files(x86)%\Microsoft SQL Server\</t>
-  </si>
-  <si>
-    <t>For all other installations:%Program Files%\Microsoft SQL Server\</t>
-  </si>
-  <si>
-    <t>Supported value:</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Backup</t>
-  </si>
-  <si>
-    <t>Adds the current user to the SQL Server sysadmin fixed server role. The /ADDCURRENTUSERASSQLADMIN parameter can be used when installing Express editions or when /Role=ALLFeatures_WithDefaults is used. For more information, see /ROLE below.</t>
-  </si>
-  <si>
-    <t>True for editions of SQL Server Express</t>
-  </si>
-  <si>
-    <t>False for all other editions</t>
-  </si>
-  <si>
-    <t>Specifies the startup mode for the SQL Server service.</t>
-  </si>
-  <si>
-    <t>Specifies the directory for the data files for tempdb.</t>
-  </si>
-  <si>
-    <t>&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Data</t>
-  </si>
-  <si>
-    <t>Specifies the directory for the log files for tempdb.</t>
-  </si>
-  <si>
-    <t>Specifies the access level for the FILESTREAM feature.</t>
-  </si>
-  <si>
-    <t>This parameter is ignored in Windows Server 2008 and Windows Vista operating systems. ServiceSID is used to help secure the communication between SQL Server and Full-text Filter Daemon. If the values are not provided, the Full-text Filter Launcher Service is disabled. You have to use SQL Server Control Manager to change the service account and enable full-text functionality.</t>
-  </si>
-  <si>
-    <t>Local Service Account</t>
-  </si>
-  <si>
-    <t>This parameter is ignored in Windows Server 2008 and Windows Vista operating systems.</t>
-  </si>
-  <si>
-    <t>NT AUTHORITY\NETWORK SERVICE</t>
-  </si>
-  <si>
-    <t>Specifies the state of the Named Pipes protocol for the SQL Server service.</t>
-  </si>
-  <si>
-    <t>Specifies the state of the TCP protocol for the SQL Server service.</t>
-  </si>
-  <si>
-    <t>Specifies the Install mode for Reporting Services.</t>
-  </si>
-  <si>
-    <t>Supported Values:SharePointFilesOnlyModeDefaultNativeMode FilesOnlyModeNote: If the installation includes the SQL Server Database engine, the default RSINSTALLMODE is DefaultNativeMode.If the installation does not include the SQL Server Database engine, the default RSINSTALLMODE is FilesOnlyMode.If you choose DefaultNativeMode but the installation does not include the SQL Server Database engine, the installation will automatically change the RSINSTALLMODE to FilesOnlyMode.</t>
   </si>
   <si>
     <t xml:space="preserve">Required to indicate the installation workflow.
@@ -2349,6 +2092,245 @@
 Default is %Program Files%\Microsoft SQL Server
 Cannot be set to %Program Files(x86)%\Microsoft SQL Server
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies a nondefault installation directory for 32-bit shared components. Supported only on a 64-bit system.
+Default is %Program Files(x86)%\Microsoft SQL Server
+Cannot be set to %Program Files%\Microsoft SQL Server
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies whether to present only the minimum number of dialog boxes during setup.
+/UIMode can only be used with the /ACTION=INSTALL and UPGRADE parameters.
+Supported values:
+/UIMODE=Normal is the default for non-Express editions and presents all setup dialog boxes for the selected features.
+/UIMODE=AutoAdvance is the default for Express editions and skips nonessential dialog boxes.
+When combined with other parameters, UIMODE is overridden. For example, when /UIMODE=AutoAdvance and /ADDCURRENTUSERASSQLADMIN=FALSE are both provided, the provisioning dialog box is not auto populated with the current user.
+The UIMode setting cannot be used with the /Q or /QS parameters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies feature usage reporting for SQL Server.
+For more information, see Privacy Statement for the Microsoft Error Reporting Service.
+Supported values:
+1=enabled
+0=disabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the startup mode for the SQL Server Agent service.
+Supported values:
+Automatic
+Disabled
+Manual
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services backup files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\ &lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Backup.
+For all other installations: %Program Files%\Microsoft SQL Server\ &lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Backup.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the collation setting for Analysis Services.
+Default value:
+Latin1_General_CI_AS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services configuration files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\ &lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Config.
+For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Config.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services data files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Data.
+For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Data.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services log files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Log.
+For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Log.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the startup mode for the Analysis Services service.
+Supported values:
+Automatic
+Disabled
+Manual
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services temporary files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Temp.
+For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Temp.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies whether the MSOLAP provider can run in-process.
+Default value:
+1=enabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies a domain user account for running SharePoint Central Administration services and other essential services in a farm.
+This parameter is used only for Analysis Services instances that are installed through /ROLE = SPI_AS_NEWFARM.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies a passphrase that is used to add additional application servers or Web front end servers to a SharePoint farm.
+This parameter is used only for Analysis Services instances that are installed through /ROLE = SPI_AS_NEWFARM.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies a port used to connect to the SharePoint Central Administration web application.
+This parameter is used only for Analysis Services instances that are installed through /ROLE = SPI_AS_NEWFARM.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the startup mode for SQL Server Browser service.
+Supported values:
+Automatic
+Disabled
+Manual
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the data directory for SQL Server data files.
+Default values:
+For WOW mode on 64-bit:%Program Files(x86)%\Microsoft SQL Server\
+For all other installations:%Program Files%\Microsoft SQL Server\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the security mode for SQL Server.
+If this parameter is not supplied, then Windows-only authentication mode is supported.
+Supported value:
+SQL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for backup files.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Backup
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the collation settings for SQL Server.
+The default value is based on the locale of your Windows operating system. For more information, see Collation Settings in Setup.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adds the current user to the SQL Server sysadmin fixed server role. The /ADDCURRENTUSERASSQLADMIN parameter can be used when installing Express editions or when /Role=ALLFeatures_WithDefaults is used. For more information, see /ROLE below.
+Use of /ADDCURRENTUSERASSQLADMIN is optional, but either /ADDCURRENTUSERASSQLADMIN or /SQLSYSADMINACCOUNTS is required. Default values:
+True for editions of SQL Server Express
+False for all other editions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the startup mode for the SQL Server service.
+Supported values:
+Automatic
+Disabled
+Manual
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use this parameter to provision logins to be members of the sysadmin role.
+For SQL Server editions other than SQL Server Express, /SQLSYSADMINACCOUNTS is required. For editions of SQL Server Express, use of /SQLSYSADMINACCOUNTS is optional, but either /SQLSYSADMINACCOUNTS or /ADDCURRENTUSERASSQLADMIN is required.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for the data files for tempdb.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for the log files for tempdb.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for the data files for user databases.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for the log files for user databases.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the access level for the FILESTREAM feature.
+Supported values:
+0 =Disable FILESTREAM support for this instance. (Default value)
+1=Enable FILESTREAM for Transact-SQL access.
+2=Enable FILESTREAM for Transact-SQL and file I/O streaming access. (Not valid for cluster scenarios)
+3=Allow remote clients to have streaming access to FILESTREAM data.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional
+Required when FILESTREAMLEVEL is greater than 1.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the account for Full-Text filter launcher service.
+This parameter is ignored in Windows Server 2008 and Windows Vista operating systems. ServiceSID is used to help secure the communication between SQL Server and Full-text Filter Daemon. If the values are not provided, the Full-text Filter Launcher Service is disabled. You have to use SQL Server Control Manager to change the service account and enable full-text functionality.
+Default value:
+Local Service Account
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the password for the Full-Text filter launcher service.
+This parameter is ignored in Windows Server 2008 and Windows Vista operating systems.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the account for Integration Services.
+Default value:
+NT AUTHORITY\NETWORK SERVICE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the state of the Named Pipes protocol for the SQL Server service.
+Supported values:
+0=disable the Named Pipes protocol
+1=enable the Named Pipes protocol
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the state of the TCP protocol for the SQL Server service.
+Supported values:
+0=disable the TCP protocol
+1=enable the TCP protocol
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the Install mode for Reporting Services.
+Supported Values:SharePointFilesOnlyModeDefaultNativeMode FilesOnlyModeNote: If the installation includes the SQL Server Database engine, the default RSINSTALLMODE is DefaultNativeMode.If the installation does not include the SQL Server Database engine, the default RSINSTALLMODE is FilesOnlyMode.If you choose DefaultNativeMode but the installation does not include the SQL Server Database engine, the installation will automatically change the RSINSTALLMODE to FilesOnlyMode.
+</t>
+  </si>
+  <si>
+    <t>Optional/Required</t>
+  </si>
+  <si>
+    <t>/HELP</t>
+  </si>
+  <si>
+    <t>Install</t>
   </si>
 </sst>
 </file>
@@ -2459,13 +2441,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2774,11 +2756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O325"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,66 +2770,66 @@
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" customWidth="1"/>
-    <col min="10" max="10" width="55" customWidth="1"/>
-    <col min="11" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="46.140625" customWidth="1"/>
+    <col min="8" max="8" width="55" customWidth="1"/>
+    <col min="9" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>532</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>535</v>
+      </c>
       <c r="J3" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="O3" s="7" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:13" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2857,3734 +2839,1447 @@
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="J4" t="e">
+        <v>543</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="G4" t="str">
+        <f>SUBSTITUTE(B4,"/","")</f>
+        <v>ACTION</v>
+      </c>
+      <c r="H4" t="str">
+        <f>"choco:sqlserver2012:"&amp;G4</f>
+        <v>choco:sqlserver2012:ACTION</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(J4,"if (!(Test-Path env:\"&amp;H4&amp;")){$env:"&amp;H4&amp;"="""&amp;F4&amp;"""}","")</f>
+        <v>if (!(Test-Path env:\choco:sqlserver2012:ACTION)){$env:choco:sqlserver2012:ACTION="Install"}</v>
+      </c>
+      <c r="L4" t="e">
+        <f>"if (Test-Path env:\"&amp;H4&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H4&amp;"`""""}"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M4" t="str">
+        <f>"$env:"&amp;H4&amp;"="""""</f>
+        <v>$env:choco:sqlserver2012:ACTION=""</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G13" si="0">SUBSTITUTE(B5,"/","")</f>
+        <v>IACCEPTSQLSERVERLICENSETERMS</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H7" si="1">"choco:sqlserver2012:"&amp;G5</f>
+        <v>choco:sqlserver2012:IACCEPTSQLSERVERLICENSETERMS</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(J5,"if (!(Test-Path env:\"&amp;H5&amp;")){$env:"&amp;H5&amp;"="""&amp;#REF!&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L5" t="e">
+        <f>"if (Test-Path env:\"&amp;H5&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H5&amp;"`""""}"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:M19" si="2">"$env:"&amp;H5&amp;"="""""</f>
+        <v>$env:choco:sqlserver2012:IACCEPTSQLSERVERLICENSETERMS=""</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>ENU</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>choco:sqlserver2012:ENU</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(J6,"if (!(Test-Path env:\"&amp;H6&amp;")){$env:"&amp;H6&amp;"="""&amp;#REF!&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L6" t="e">
+        <f>"if (Test-Path env:\"&amp;H6&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H6&amp;"`""""}"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>$env:choco:sqlserver2012:ENU=""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>UpdateEnabled</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>choco:sqlserver2012:UpdateEnabled</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(J7,"if (!(Test-Path env:\"&amp;H7&amp;")){$env:"&amp;H7&amp;"="""&amp;#REF!&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L7" t="e">
+        <f>"if (Test-Path env:\"&amp;H7&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H7&amp;"`""""}"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>$env:choco:sqlserver2012:UpdateEnabled=""</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>UpdateSource</v>
+      </c>
+      <c r="H8" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K4">
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="M4" t="str">
-        <f>IF(L4,"if (!(Test-Path env:\"&amp;J4&amp;")){$env:"&amp;J4&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K8" t="str">
+        <f>IF(J8,"if (!(Test-Path env:\"&amp;H8&amp;")){$env:"&amp;H8&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N4" t="e">
-        <f>"if (Test-Path env:\"&amp;J4&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J4&amp;"`""""}"</f>
+      <c r="L8" t="e">
+        <f>"if (Test-Path env:\"&amp;H8&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H8&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O4" t="e">
-        <f>"$env:"&amp;J4&amp;"="""""</f>
+      <c r="M8" t="e">
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="9" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="J5" t="e">
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>CONFIGURATIONFILE</v>
+      </c>
+      <c r="H9" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K5">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="M5" t="str">
-        <f>IF(L5,"if (!(Test-Path env:\"&amp;J5&amp;")){$env:"&amp;J5&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K9" t="str">
+        <f>IF(J9,"if (!(Test-Path env:\"&amp;H9&amp;")){$env:"&amp;H9&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N5" t="e">
-        <f>"if (Test-Path env:\"&amp;J5&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J5&amp;"`""""}"</f>
+      <c r="L9" t="e">
+        <f>"if (Test-Path env:\"&amp;H9&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H9&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O5" t="e">
-        <f t="shared" ref="O5:O31" si="0">"$env:"&amp;J5&amp;"="""""</f>
+      <c r="M9" t="e">
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="10" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="e">
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>ERRORREPORTING</v>
+      </c>
+      <c r="H10" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K6">
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="M6" t="str">
-        <f>IF(L6,"if (!(Test-Path env:\"&amp;J6&amp;")){$env:"&amp;J6&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K10" t="str">
+        <f>IF(J10,"if (!(Test-Path env:\"&amp;H10&amp;")){$env:"&amp;H10&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N6" t="e">
-        <f>"if (Test-Path env:\"&amp;J6&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J6&amp;"`""""}"</f>
+      <c r="L10" t="e">
+        <f>"if (Test-Path env:\"&amp;H10&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H10&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O6" t="e">
+      <c r="M10" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="e">
+        <v>FEATURES</v>
+      </c>
+      <c r="H11" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K7">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="M7" t="str">
-        <f>IF(L7,"if (!(Test-Path env:\"&amp;J7&amp;")){$env:"&amp;J7&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K11" t="str">
+        <f>IF(J11,"if (!(Test-Path env:\"&amp;H11&amp;")){$env:"&amp;H11&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N7" t="e">
-        <f>"if (Test-Path env:\"&amp;J7&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J7&amp;"`""""}"</f>
+      <c r="L11" t="e">
+        <f>"if (Test-Path env:\"&amp;H11&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H11&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O7" t="e">
+      <c r="M11" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="J8" t="e">
+        <v>HELP</v>
+      </c>
+      <c r="H12" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K8">
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="M8" t="str">
-        <f>IF(L8,"if (!(Test-Path env:\"&amp;J8&amp;")){$env:"&amp;J8&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K12" t="str">
+        <f>IF(J12,"if (!(Test-Path env:\"&amp;H12&amp;")){$env:"&amp;H12&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N8" t="e">
-        <f>"if (Test-Path env:\"&amp;J8&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J8&amp;"`""""}"</f>
+      <c r="L12" t="e">
+        <f>"if (Test-Path env:\"&amp;H12&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H12&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O8" t="e">
+      <c r="M12" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="e">
+        <v>INDICATEPROGRESS</v>
+      </c>
+      <c r="H13" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K9">
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="M9" t="str">
-        <f>IF(L9,"if (!(Test-Path env:\"&amp;J9&amp;")){$env:"&amp;J9&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K13" t="str">
+        <f>IF(J13,"if (!(Test-Path env:\"&amp;H13&amp;")){$env:"&amp;H13&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N9" t="e">
-        <f>"if (Test-Path env:\"&amp;J9&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J9&amp;"`""""}"</f>
+      <c r="L13" t="e">
+        <f>"if (Test-Path env:\"&amp;H13&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H13&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O9" t="e">
-        <f t="shared" si="0"/>
+      <c r="M13" t="e">
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="J10" t="e">
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="H14" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K10">
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="M10" t="str">
-        <f>IF(L10,"if (!(Test-Path env:\"&amp;J10&amp;")){$env:"&amp;J10&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K14" t="str">
+        <f>IF(J14,"if (!(Test-Path env:\"&amp;H14&amp;")){$env:"&amp;H14&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N10" t="e">
-        <f>"if (Test-Path env:\"&amp;J10&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J10&amp;"`""""}"</f>
+      <c r="L14" t="e">
+        <f>"if (Test-Path env:\"&amp;H14&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H14&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O10" t="e">
-        <f t="shared" si="0"/>
+      <c r="M14" t="e">
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="210" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="J11" t="e">
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="H15" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K11">
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="M11" t="str">
-        <f>IF(L11,"if (!(Test-Path env:\"&amp;J11&amp;")){$env:"&amp;J11&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K15" t="str">
+        <f>IF(J15,"if (!(Test-Path env:\"&amp;H15&amp;")){$env:"&amp;H15&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N11" t="e">
-        <f>"if (Test-Path env:\"&amp;J11&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J11&amp;"`""""}"</f>
+      <c r="L15" t="e">
+        <f>"if (Test-Path env:\"&amp;H15&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H15&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O11" t="e">
-        <f t="shared" si="0"/>
+      <c r="M15" t="e">
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="16" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" t="e">
+      <c r="B16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K12">
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="M12" t="str">
-        <f>IF(L12,"if (!(Test-Path env:\"&amp;J12&amp;")){$env:"&amp;J12&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K16" t="str">
+        <f>IF(J16,"if (!(Test-Path env:\"&amp;H16&amp;")){$env:"&amp;H16&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N12" t="e">
-        <f>"if (Test-Path env:\"&amp;J12&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J12&amp;"`""""}"</f>
+      <c r="L16" t="e">
+        <f>"if (Test-Path env:\"&amp;H16&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H16&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O12" t="e">
-        <f t="shared" si="0"/>
+      <c r="M16" t="e">
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="e">
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K13">
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="J17">
         <v>0</v>
       </c>
-      <c r="M13" t="str">
-        <f>IF(L13,"if (!(Test-Path env:\"&amp;J13&amp;")){$env:"&amp;J13&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K17" t="str">
+        <f>IF(J17,"if (!(Test-Path env:\"&amp;H17&amp;")){$env:"&amp;H17&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N13" t="e">
-        <f>"if (Test-Path env:\"&amp;J13&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J13&amp;"`""""}"</f>
+      <c r="L17" t="e">
+        <f>"if (Test-Path env:\"&amp;H17&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H17&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O13" t="e">
-        <f t="shared" si="0"/>
+      <c r="M17" t="e">
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="J14" t="e">
+      <c r="B18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K14">
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="M14" t="str">
-        <f>IF(L14,"if (!(Test-Path env:\"&amp;J14&amp;")){$env:"&amp;J14&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K18" t="str">
+        <f>IF(J18,"if (!(Test-Path env:\"&amp;H18&amp;")){$env:"&amp;H18&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N14" t="e">
-        <f>"if (Test-Path env:\"&amp;J14&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J14&amp;"`""""}"</f>
+      <c r="L18" t="e">
+        <f>"if (Test-Path env:\"&amp;H18&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H18&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O14" t="e">
-        <f t="shared" si="0"/>
+      <c r="M18" t="e">
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="19" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" t="e">
+      <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K15">
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="M15" t="str">
-        <f>IF(L15,"if (!(Test-Path env:\"&amp;J15&amp;")){$env:"&amp;J15&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K19" t="str">
+        <f>IF(J19,"if (!(Test-Path env:\"&amp;H19&amp;")){$env:"&amp;H19&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N15" t="e">
-        <f>"if (Test-Path env:\"&amp;J15&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J15&amp;"`""""}"</f>
+      <c r="L19" t="e">
+        <f>"if (Test-Path env:\"&amp;H19&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H19&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O15" t="e">
-        <f t="shared" si="0"/>
+      <c r="M19" t="e">
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="J16" t="e">
+    <row r="20" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K16">
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="J20">
         <v>0</v>
       </c>
-      <c r="M16" t="str">
-        <f>IF(L16,"if (!(Test-Path env:\"&amp;J16&amp;")){$env:"&amp;J16&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K20" t="str">
+        <f>IF(J20,"if (!(Test-Path env:\"&amp;H20&amp;")){$env:"&amp;H20&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N16" t="e">
-        <f>"if (Test-Path env:\"&amp;J16&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J16&amp;"`""""}"</f>
+      <c r="L20" t="e">
+        <f>"if (Test-Path env:\"&amp;H20&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H20&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O16" t="e">
-        <f t="shared" si="0"/>
+      <c r="M20" t="e">
+        <f t="shared" ref="M20:M22" si="3">"$env:"&amp;H20&amp;"="""""</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="J17" t="e">
+    <row r="21" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K17">
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="J21">
         <v>0</v>
       </c>
-      <c r="M17" t="str">
-        <f>IF(L17,"if (!(Test-Path env:\"&amp;J17&amp;")){$env:"&amp;J17&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K21" t="str">
+        <f>IF(J21,"if (!(Test-Path env:\"&amp;H21&amp;")){$env:"&amp;H21&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N17" t="e">
-        <f>"if (Test-Path env:\"&amp;J17&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J17&amp;"`""""}"</f>
+      <c r="L21" t="e">
+        <f>"if (Test-Path env:\"&amp;H21&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H21&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O17" t="e">
-        <f t="shared" si="0"/>
+      <c r="M21" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="J18" t="e">
+    <row r="22" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="H22" t="e">
         <f>"choco:sqlserver2012:"&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K18">
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="J22">
         <v>0</v>
       </c>
-      <c r="M18" t="str">
-        <f>IF(L18,"if (!(Test-Path env:\"&amp;J18&amp;")){$env:"&amp;J18&amp;"="""&amp;#REF!&amp;"""}","")</f>
+      <c r="K22" t="str">
+        <f>IF(J22,"if (!(Test-Path env:\"&amp;H22&amp;")){$env:"&amp;H22&amp;"="""&amp;#REF!&amp;"""}","")</f>
         <v/>
       </c>
-      <c r="N18" t="e">
-        <f>"if (Test-Path env:\"&amp;J18&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J18&amp;"`""""}"</f>
+      <c r="L22" t="e">
+        <f>"if (Test-Path env:\"&amp;H22&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;H22&amp;"`""""}"</f>
         <v>#REF!</v>
       </c>
-      <c r="O18" t="e">
-        <f t="shared" si="0"/>
+      <c r="M22" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="J19" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="str">
-        <f>IF(L19,"if (!(Test-Path env:\"&amp;J19&amp;")){$env:"&amp;J19&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N19" t="e">
-        <f>"if (Test-Path env:\"&amp;J19&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J19&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O19" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="str">
-        <f>IF(L20,"if (!(Test-Path env:\"&amp;J20&amp;")){$env:"&amp;J20&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N20" t="e">
-        <f>"if (Test-Path env:\"&amp;J20&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J20&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O20" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="J21" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="str">
-        <f>IF(L21,"if (!(Test-Path env:\"&amp;J21&amp;")){$env:"&amp;J21&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N21" t="e">
-        <f>"if (Test-Path env:\"&amp;J21&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J21&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
-      <c r="J22" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="str">
-        <f>IF(L22,"if (!(Test-Path env:\"&amp;J22&amp;")){$env:"&amp;J22&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N22" t="e">
-        <f>"if (Test-Path env:\"&amp;J22&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J22&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O22" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="str">
-        <f>IF(L23,"if (!(Test-Path env:\"&amp;J23&amp;")){$env:"&amp;J23&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N23" t="e">
-        <f>"if (Test-Path env:\"&amp;J23&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J23&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O23" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11"/>
-      <c r="J24" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="str">
-        <f>IF(L24,"if (!(Test-Path env:\"&amp;J24&amp;")){$env:"&amp;J24&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N24" t="e">
-        <f>"if (Test-Path env:\"&amp;J24&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J24&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O24" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="11"/>
-      <c r="J25" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="str">
-        <f>IF(L25,"if (!(Test-Path env:\"&amp;J25&amp;")){$env:"&amp;J25&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N25" t="e">
-        <f>"if (Test-Path env:\"&amp;J25&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J25&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O25" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="str">
-        <f>IF(L26,"if (!(Test-Path env:\"&amp;J26&amp;")){$env:"&amp;J26&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N26" t="e">
-        <f>"if (Test-Path env:\"&amp;J26&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J26&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O26" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="J27" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="str">
-        <f>IF(L27,"if (!(Test-Path env:\"&amp;J27&amp;")){$env:"&amp;J27&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N27" t="e">
-        <f>"if (Test-Path env:\"&amp;J27&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J27&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O27" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="str">
-        <f>IF(L28,"if (!(Test-Path env:\"&amp;J28&amp;")){$env:"&amp;J28&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N28" t="e">
-        <f>"if (Test-Path env:\"&amp;J28&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J28&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O28" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="str">
-        <f>IF(L29,"if (!(Test-Path env:\"&amp;J29&amp;")){$env:"&amp;J29&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N29" t="e">
-        <f>"if (Test-Path env:\"&amp;J29&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J29&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O29" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="10"/>
-      <c r="J30" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="str">
-        <f>IF(L30,"if (!(Test-Path env:\"&amp;J30&amp;")){$env:"&amp;J30&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N30" t="e">
-        <f>"if (Test-Path env:\"&amp;J30&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J30&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O30" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="10"/>
-      <c r="J31" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="str">
-        <f>IF(L31,"if (!(Test-Path env:\"&amp;J31&amp;")){$env:"&amp;J31&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N31" t="e">
-        <f>"if (Test-Path env:\"&amp;J31&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J31&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="str">
-        <f>IF(L32,"if (!(Test-Path env:\"&amp;J32&amp;")){$env:"&amp;J32&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N32" t="e">
-        <f>"if (Test-Path env:\"&amp;J32&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J32&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O32" t="e">
-        <f t="shared" ref="O32:O46" si="1">"$env:"&amp;J32&amp;"="""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10"/>
-      <c r="J33" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="str">
-        <f>IF(L33,"if (!(Test-Path env:\"&amp;J33&amp;")){$env:"&amp;J33&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N33" t="e">
-        <f>"if (Test-Path env:\"&amp;J33&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J33&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O33" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="10"/>
-      <c r="J34" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="str">
-        <f>IF(L34,"if (!(Test-Path env:\"&amp;J34&amp;")){$env:"&amp;J34&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N34" t="e">
-        <f>"if (Test-Path env:\"&amp;J34&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J34&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O34" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="str">
-        <f>IF(L35,"if (!(Test-Path env:\"&amp;J35&amp;")){$env:"&amp;J35&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N35" t="e">
-        <f>"if (Test-Path env:\"&amp;J35&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J35&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O35" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="10"/>
-      <c r="J36" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="str">
-        <f>IF(L36,"if (!(Test-Path env:\"&amp;J36&amp;")){$env:"&amp;J36&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N36" t="e">
-        <f>"if (Test-Path env:\"&amp;J36&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J36&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O36" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="10"/>
-      <c r="J37" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="str">
-        <f>IF(L37,"if (!(Test-Path env:\"&amp;J37&amp;")){$env:"&amp;J37&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N37" t="e">
-        <f>"if (Test-Path env:\"&amp;J37&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J37&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O37" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="str">
-        <f>IF(L38,"if (!(Test-Path env:\"&amp;J38&amp;")){$env:"&amp;J38&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N38" t="e">
-        <f>"if (Test-Path env:\"&amp;J38&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J38&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O38" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="J39" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="str">
-        <f>IF(L39,"if (!(Test-Path env:\"&amp;J39&amp;")){$env:"&amp;J39&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N39" t="e">
-        <f>"if (Test-Path env:\"&amp;J39&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J39&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O39" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="J40" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="str">
-        <f>IF(L40,"if (!(Test-Path env:\"&amp;J40&amp;")){$env:"&amp;J40&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N40" t="e">
-        <f>"if (Test-Path env:\"&amp;J40&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J40&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O40" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="J41" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="str">
-        <f>IF(L41,"if (!(Test-Path env:\"&amp;J41&amp;")){$env:"&amp;J41&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N41" t="e">
-        <f>"if (Test-Path env:\"&amp;J41&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J41&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="str">
-        <f>IF(L42,"if (!(Test-Path env:\"&amp;J42&amp;")){$env:"&amp;J42&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N42" t="e">
-        <f>"if (Test-Path env:\"&amp;J42&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J42&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O42" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="12"/>
-      <c r="J43" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="str">
-        <f>IF(L43,"if (!(Test-Path env:\"&amp;J43&amp;")){$env:"&amp;J43&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N43" t="e">
-        <f>"if (Test-Path env:\"&amp;J43&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J43&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O43" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J44" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" t="str">
-        <f>IF(L44,"if (!(Test-Path env:\"&amp;J44&amp;")){$env:"&amp;J44&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N44" t="e">
-        <f>"if (Test-Path env:\"&amp;J44&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J44&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O44" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="12"/>
-      <c r="J45" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" t="str">
-        <f>IF(L45,"if (!(Test-Path env:\"&amp;J45&amp;")){$env:"&amp;J45&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N45" t="e">
-        <f>"if (Test-Path env:\"&amp;J45&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J45&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O45" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" t="e">
-        <f>"choco:sqlserver2012:"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="str">
-        <f>IF(L46,"if (!(Test-Path env:\"&amp;J46&amp;")){$env:"&amp;J46&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="N46" t="e">
-        <f>"if (Test-Path env:\"&amp;J46&amp;"){Add-Content $configFile """&amp;#REF!&amp;"=`""$env:"&amp;J46&amp;"`""""}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O46" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="M47" t="str">
-        <f>IF(L47,"if (!(Test-Path $env:"&amp;J47&amp;")){$env:"&amp;J47&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D48" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="M48" t="str">
-        <f>IF(L48,"if (!(Test-Path $env:"&amp;J48&amp;")){$env:"&amp;J48&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="M49" t="str">
-        <f>IF(L49,"if (!(Test-Path $env:"&amp;J49&amp;")){$env:"&amp;J49&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D50" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M50" t="str">
-        <f>IF(L50,"if (!(Test-Path $env:"&amp;J50&amp;")){$env:"&amp;J50&amp;"="""&amp;#REF!&amp;"""}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D55" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>577</v>
+      </c>
       <c r="D61" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="12"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="12"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="12" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="12"/>
-    </row>
-    <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="12" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="12"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="12" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="12" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="12"/>
-    </row>
-    <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="12" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-    </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="12"/>
-    </row>
-    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="12"/>
-    </row>
-    <row r="108" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="12" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-    </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="12"/>
-    </row>
-    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="12" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="12"/>
-    </row>
-    <row r="116" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="12" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-    </row>
-    <row r="118" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="11"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="11"/>
-    </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="10"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="3" t="s">
+      <c r="D70" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="10"/>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="10"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
-      <c r="B126" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="10"/>
-    </row>
-    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="9" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="12"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="12"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="12"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="10"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="10"/>
-    </row>
-    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" s="3"/>
-      <c r="D142" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="12"/>
-    </row>
-    <row r="144" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="12"/>
-    </row>
-    <row r="146" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-    </row>
-    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="12"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-    </row>
-    <row r="154" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-    </row>
-    <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="10"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="10"/>
-    </row>
-    <row r="160" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-    </row>
-    <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C162" s="3"/>
-      <c r="D162" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-    </row>
-    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
-      <c r="B165" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="9" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="12"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="12"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="12"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-    </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="10"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="10"/>
-    </row>
-    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="B181" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="12"/>
-    </row>
-    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="12"/>
-    </row>
-    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C187" s="8"/>
-      <c r="D187" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="10"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-      <c r="B189" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="10"/>
-    </row>
-    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-    </row>
-    <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
-      <c r="B192" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="3"/>
-      <c r="D192" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="12"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="12" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="10"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
-      <c r="B200" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="12"/>
-    </row>
-    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="10"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-    </row>
-    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-    </row>
-    <row r="206" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A206" s="10"/>
-      <c r="B206" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A207" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C207" s="8"/>
-      <c r="D207" s="9" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-    </row>
-    <row r="209" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A209" s="10"/>
-      <c r="B209" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" s="3"/>
-      <c r="D209" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="12"/>
-    </row>
-    <row r="211" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="12" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="10"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="12"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
-      <c r="D213" s="12" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-    </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C215" s="8"/>
-      <c r="D215" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="10"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
-      <c r="B217" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="10"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C218" s="8"/>
-      <c r="D218" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="10"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
-      <c r="B220" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="10"/>
-    </row>
-    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C221" s="8"/>
-      <c r="D221" s="9" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
-      <c r="B223" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="10"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
-      <c r="D224" s="12"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="10"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
-      <c r="D225" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="10"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
-      <c r="D226" s="12"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="10"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
-      <c r="D227" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="10"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
-      <c r="D228" s="12"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
-      <c r="D229" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="10"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-    </row>
-    <row r="231" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-    </row>
-    <row r="233" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A233" s="10"/>
-      <c r="B233" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C234" s="8"/>
-      <c r="D234" s="8" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="10"/>
-      <c r="B236" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="12"/>
-    </row>
-    <row r="238" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="10"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
-      <c r="D238" s="12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="10"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
-      <c r="D239" s="8"/>
-    </row>
-    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="10"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="10"/>
-      <c r="B242" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="10"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="12"/>
-    </row>
-    <row r="244" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="10"/>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
-      <c r="D244" s="12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-    </row>
-    <row r="246" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="10"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="10"/>
-      <c r="B248" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="10"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="8"/>
-      <c r="D249" s="12"/>
-    </row>
-    <row r="250" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-    </row>
-    <row r="252" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="10"/>
-      <c r="B254" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="10"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="12"/>
-    </row>
-    <row r="256" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" s="10"/>
-      <c r="B256" s="8"/>
-      <c r="C256" s="8"/>
-      <c r="D256" s="12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
-      <c r="B257" s="8"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8"/>
-    </row>
-    <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
-      <c r="B260" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C260" s="3"/>
-      <c r="D260" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="10"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="12"/>
-    </row>
-    <row r="262" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="10"/>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="12"/>
-    </row>
-    <row r="264" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="10"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="10"/>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="12"/>
-    </row>
-    <row r="266" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="10"/>
-      <c r="B267" s="8"/>
-      <c r="C267" s="8"/>
-      <c r="D267" s="12"/>
-    </row>
-    <row r="268" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="10"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="10"/>
-      <c r="B269" s="8"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="8"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C270" s="8"/>
-      <c r="D270" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="10"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
-      <c r="B272" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C272" s="3"/>
-      <c r="D272" s="10"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="10"/>
-      <c r="B273" s="8"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="10"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="10"/>
-      <c r="B274" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C274" s="3"/>
-      <c r="D274" s="10"/>
-    </row>
-    <row r="275" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C275" s="8"/>
-      <c r="D275" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="10"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="8"/>
-    </row>
-    <row r="277" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A277" s="10"/>
-      <c r="B277" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C277" s="3"/>
-      <c r="D277" s="8" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="10"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="8"/>
-      <c r="D278" s="8"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="10"/>
-      <c r="B279" s="8"/>
-      <c r="C279" s="8"/>
-      <c r="D279" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="10"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="12"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="10"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="12" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="10"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-    </row>
-    <row r="283" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C283" s="8"/>
-      <c r="D283" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="10"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-    </row>
-    <row r="285" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A285" s="10"/>
-      <c r="B285" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C285" s="3"/>
-      <c r="D285" s="8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="10"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="10"/>
-      <c r="B288" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C288" s="3"/>
-      <c r="D288" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="10"/>
-      <c r="B289" s="8"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="12"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="10"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="12" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="10"/>
-      <c r="B291" s="8"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="8"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C292" s="8"/>
-      <c r="D292" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="10"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="10"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="10"/>
-      <c r="B294" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C294" s="9"/>
-      <c r="D294" s="10"/>
-    </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C295" s="8"/>
-      <c r="D295" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="10"/>
-      <c r="B296" s="8"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="11"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="10"/>
-      <c r="B297" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C297" s="3"/>
-      <c r="D297" s="11"/>
-    </row>
-    <row r="298" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A298" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C298" s="8"/>
-      <c r="D298" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="10"/>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="8"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="10"/>
-      <c r="B300" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C300" s="3"/>
-      <c r="D300" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="10"/>
-      <c r="B301" s="8"/>
-      <c r="C301" s="8"/>
-      <c r="D301" s="12"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="10"/>
-      <c r="B302" s="8"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="10"/>
-      <c r="B303" s="8"/>
-      <c r="C303" s="8"/>
-      <c r="D303" s="12"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="10"/>
-      <c r="B304" s="8"/>
-      <c r="C304" s="8"/>
-      <c r="D304" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="10"/>
-      <c r="B305" s="8"/>
-      <c r="C305" s="8"/>
-      <c r="D305" s="8"/>
-    </row>
-    <row r="306" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A306" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C306" s="8"/>
-      <c r="D306" s="8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="10"/>
-      <c r="B307" s="8"/>
-      <c r="C307" s="8"/>
-      <c r="D307" s="8"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="10"/>
-      <c r="B308" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C308" s="3"/>
-      <c r="D308" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="10"/>
-      <c r="B309" s="8"/>
-      <c r="C309" s="8"/>
-      <c r="D309" s="12"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="10"/>
-      <c r="B310" s="8"/>
-      <c r="C310" s="8"/>
-      <c r="D310" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="10"/>
-      <c r="B311" s="8"/>
-      <c r="C311" s="8"/>
-      <c r="D311" s="12"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="10"/>
-      <c r="B312" s="8"/>
-      <c r="C312" s="8"/>
-      <c r="D312" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="10"/>
-      <c r="B313" s="8"/>
-      <c r="C313" s="8"/>
-      <c r="D313" s="8"/>
-    </row>
-    <row r="314" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A314" s="10" t="s">
+      <c r="D71" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B314" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C314" s="8"/>
-      <c r="D314" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="10"/>
-      <c r="B315" s="8"/>
-      <c r="C315" s="8"/>
-      <c r="D315" s="8"/>
-    </row>
-    <row r="316" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A316" s="10"/>
-      <c r="B316" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C316" s="3"/>
-      <c r="D316" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B317" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C317" s="8"/>
-      <c r="D317" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="10"/>
-      <c r="B318" s="8"/>
-      <c r="C318" s="8"/>
-      <c r="D318" s="10"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="10"/>
-      <c r="B319" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C319" s="3"/>
-      <c r="D319" s="10"/>
-    </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C320" s="8"/>
-      <c r="D320" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="10"/>
-      <c r="B321" s="8"/>
-      <c r="C321" s="8"/>
-      <c r="D321" s="10"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="10"/>
-      <c r="B322" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C322" s="9"/>
-      <c r="D322" s="10"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B323" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C323" s="8"/>
-      <c r="D323" s="11" t="s">
+      <c r="C72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="10"/>
-      <c r="B324" s="8"/>
-      <c r="C324" s="8"/>
-      <c r="D324" s="11"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="10"/>
-      <c r="B325" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C325" s="3"/>
-      <c r="D325" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:N46"/>
-  <mergeCells count="81">
-    <mergeCell ref="A314:A316"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="A320:A322"/>
-    <mergeCell ref="A323:A325"/>
-    <mergeCell ref="A283:A285"/>
-    <mergeCell ref="A286:A291"/>
-    <mergeCell ref="A292:A294"/>
-    <mergeCell ref="A295:A297"/>
-    <mergeCell ref="A298:A305"/>
-    <mergeCell ref="A306:A313"/>
-    <mergeCell ref="A240:A245"/>
-    <mergeCell ref="A246:A251"/>
-    <mergeCell ref="A252:A257"/>
-    <mergeCell ref="A258:A269"/>
-    <mergeCell ref="A270:A274"/>
-    <mergeCell ref="A275:A282"/>
-    <mergeCell ref="A207:A214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A234:A239"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A179:A186"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A175"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A136"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="A140:A147"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="A110:A117"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A50"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="D317:D319"/>
-    <mergeCell ref="D320:D322"/>
-    <mergeCell ref="D270:D274"/>
-    <mergeCell ref="D215:D217"/>
-    <mergeCell ref="D218:D220"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D323:D325"/>
-    <mergeCell ref="D292:D294"/>
-    <mergeCell ref="D295:D297"/>
-    <mergeCell ref="D187:D189"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D23:D25"/>
-  </mergeCells>
+  <autoFilter ref="A3:L22"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1"/>
     <hyperlink ref="D9" r:id="rId2" display="https://technet.microsoft.com/en-au/library/dd239405%28v=sql.110%29.aspx"/>
-    <hyperlink ref="D23" r:id="rId3" location="InstanceID" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - InstanceID"/>
-    <hyperlink ref="D28" r:id="rId4" display="https://technet.microsoft.com/en-au/library/ms143531%28v=sql.110%29.aspx"/>
-    <hyperlink ref="D53" r:id="rId5" display="http://go.microsoft.com/fwlink/?LinkID=72173"/>
-    <hyperlink ref="B69" r:id="rId6" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="D70" r:id="rId7" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="D118" r:id="rId8" display="https://technet.microsoft.com/en-au/library/hh231722%28v=sql.110%29.aspx"/>
-    <hyperlink ref="B126" r:id="rId9" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="D127" r:id="rId10" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="D156" r:id="rId11" location="Role" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Role"/>
-    <hyperlink ref="D162" r:id="rId12" location="Role" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Role"/>
-    <hyperlink ref="D165" r:id="rId13" location="Role" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Role"/>
-    <hyperlink ref="D166" r:id="rId14" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="D206" r:id="rId15" display="https://msdn.microsoft.com/library/ms143508%28v=sql.105%29.aspx"/>
-    <hyperlink ref="D207" r:id="rId16" location="Role" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Role"/>
-    <hyperlink ref="B220" r:id="rId17" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="D221" r:id="rId18" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="B294" r:id="rId19" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="D295" r:id="rId20" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="B322" r:id="rId21" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
-    <hyperlink ref="D323" r:id="rId22" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="D17" r:id="rId3" location="InstanceID" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - InstanceID"/>
+    <hyperlink ref="C26" r:id="rId4" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="D27" r:id="rId5" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="D33" r:id="rId6" display="https://technet.microsoft.com/en-au/library/hh231722%28v=sql.110%29.aspx"/>
+    <hyperlink ref="C35" r:id="rId7" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="D36" r:id="rId8" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="D44" r:id="rId9" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="D51" r:id="rId10" location="Role" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Role"/>
+    <hyperlink ref="C53" r:id="rId11" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="D54" r:id="rId12" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="C65" r:id="rId13" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="D66" r:id="rId14" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="C71" r:id="rId15" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
+    <hyperlink ref="D72" r:id="rId16" location="Accounts" display="https://technet.microsoft.com/en-au/library/ms144259%28v=sql.110%29.aspx - Accounts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -6614,7 +4309,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6625,12 +4320,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -6639,122 +4334,122 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6765,12 +4460,12 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
@@ -6779,43 +4474,43 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6826,12 +4521,12 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -6840,12 +4535,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -6854,65 +4549,65 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="10"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="10"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -6923,12 +4618,12 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -6937,19 +4632,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -6960,12 +4655,12 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
@@ -6974,65 +4669,65 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="11"/>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -7043,12 +4738,12 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
@@ -7057,76 +4752,76 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="10"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="10"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="10"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -7137,12 +4832,12 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
@@ -7151,99 +4846,99 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="10"/>
+      <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="10"/>
+      <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="10"/>
+      <c r="C78" s="13"/>
     </row>
     <row r="79" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="10"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="13"/>
     </row>
     <row r="82" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="10"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="10"/>
+      <c r="C84" s="13"/>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -7254,12 +4949,12 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="3" t="s">
         <v>12</v>
       </c>
@@ -7268,55 +4963,55 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -7327,12 +5022,12 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="3" t="s">
         <v>12</v>
       </c>
@@ -7341,112 +5036,112 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="10"/>
+      <c r="C106" s="13"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="10"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="10"/>
+      <c r="C109" s="13"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="10"/>
+      <c r="C110" s="13"/>
     </row>
     <row r="111" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="10"/>
+      <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="10"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -7457,12 +5152,12 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
@@ -7471,43 +5166,43 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
+      <c r="A122" s="13"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -7518,12 +5213,12 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+      <c r="A125" s="13"/>
       <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
@@ -7532,19 +5227,19 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -7555,12 +5250,12 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
+      <c r="A129" s="13"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="3" t="s">
         <v>12</v>
       </c>
@@ -7569,7 +5264,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -7580,12 +5275,12 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
+      <c r="A132" s="13"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
+      <c r="A133" s="13"/>
       <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
@@ -7594,19 +5289,19 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+      <c r="A134" s="13"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -7617,12 +5312,12 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
+      <c r="A138" s="13"/>
       <c r="B138" s="3" t="s">
         <v>12</v>
       </c>
@@ -7631,19 +5326,19 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
+      <c r="A139" s="13"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -7654,12 +5349,12 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+      <c r="A143" s="13"/>
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -7668,88 +5363,88 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
+      <c r="A144" s="13"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
+      <c r="A145" s="13"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="11"/>
+      <c r="C147" s="14"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+      <c r="A148" s="13"/>
       <c r="B148" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="11"/>
+      <c r="C148" s="14"/>
     </row>
     <row r="149" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
+      <c r="A150" s="13"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="10"/>
+      <c r="C150" s="13"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+      <c r="A151" s="13"/>
       <c r="B151" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="10"/>
+      <c r="C151" s="13"/>
     </row>
     <row r="152" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
+      <c r="A153" s="13"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="10"/>
+      <c r="C153" s="13"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
+      <c r="A154" s="13"/>
       <c r="B154" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C154" s="10"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -7760,12 +5455,12 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
+      <c r="A156" s="13"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
+      <c r="A157" s="13"/>
       <c r="B157" s="3" t="s">
         <v>12</v>
       </c>
@@ -7774,54 +5469,54 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
+      <c r="A160" s="13"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
+      <c r="A161" s="13"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
+      <c r="A163" s="13"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="10"/>
+      <c r="C163" s="13"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
+      <c r="A164" s="13"/>
       <c r="B164" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C164" s="10"/>
+      <c r="C164" s="13"/>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -7832,12 +5527,12 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
+      <c r="A166" s="13"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
+      <c r="A167" s="13"/>
       <c r="B167" s="3" t="s">
         <v>12</v>
       </c>
@@ -7846,19 +5541,19 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
+      <c r="A168" s="13"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
+      <c r="A169" s="13"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -7869,12 +5564,12 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
+      <c r="A171" s="13"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
+      <c r="A172" s="13"/>
       <c r="B172" s="3" t="s">
         <v>12</v>
       </c>
@@ -7883,7 +5578,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="10" t="s">
+      <c r="A173" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -7894,12 +5589,12 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
+      <c r="A174" s="13"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
+      <c r="A175" s="13"/>
       <c r="B175" s="3" t="s">
         <v>128</v>
       </c>
@@ -7908,30 +5603,30 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
+      <c r="A177" s="13"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="10"/>
+      <c r="C177" s="13"/>
     </row>
     <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
+      <c r="A178" s="13"/>
       <c r="B178" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C178" s="10"/>
+      <c r="C178" s="13"/>
     </row>
     <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -7942,12 +5637,12 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
+      <c r="A181" s="13"/>
       <c r="B181" s="3" t="s">
         <v>128</v>
       </c>
@@ -7956,7 +5651,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -7967,12 +5662,12 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
+      <c r="A183" s="13"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
+      <c r="A184" s="13"/>
       <c r="B184" s="3" t="s">
         <v>128</v>
       </c>
@@ -7981,7 +5676,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -7992,12 +5687,12 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
+      <c r="A186" s="13"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
+      <c r="A187" s="13"/>
       <c r="B187" s="3" t="s">
         <v>12</v>
       </c>
@@ -8006,54 +5701,54 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
+      <c r="A188" s="13"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
+      <c r="A189" s="13"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
+      <c r="A190" s="13"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
+      <c r="A191" s="13"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
+      <c r="A193" s="13"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="10"/>
+      <c r="C193" s="13"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
+      <c r="A194" s="13"/>
       <c r="B194" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="10"/>
+      <c r="C194" s="13"/>
     </row>
     <row r="195" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -8064,12 +5759,12 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
+      <c r="A196" s="13"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
+      <c r="A197" s="13"/>
       <c r="B197" s="3" t="s">
         <v>12</v>
       </c>
@@ -8078,42 +5773,42 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
+      <c r="A198" s="13"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="10"/>
+      <c r="A199" s="13"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
+      <c r="A201" s="13"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="10"/>
+      <c r="C201" s="13"/>
     </row>
     <row r="202" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
+      <c r="A202" s="13"/>
       <c r="B202" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C202" s="10"/>
+      <c r="C202" s="13"/>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -8124,12 +5819,12 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
+      <c r="A204" s="13"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
+      <c r="A205" s="13"/>
       <c r="B205" s="3" t="s">
         <v>12</v>
       </c>
@@ -8138,19 +5833,19 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="10"/>
+      <c r="A206" s="13"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="10"/>
+      <c r="A207" s="13"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="10" t="s">
+      <c r="A208" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -8161,12 +5856,12 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="10"/>
+      <c r="A209" s="13"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
+      <c r="A210" s="13"/>
       <c r="B210" s="3" t="s">
         <v>12</v>
       </c>
@@ -8175,7 +5870,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="10" t="s">
+      <c r="A211" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -8186,12 +5881,12 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="10"/>
+      <c r="A212" s="13"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
+      <c r="A213" s="13"/>
       <c r="B213" s="3" t="s">
         <v>12</v>
       </c>
@@ -8200,7 +5895,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A214" s="10" t="s">
+      <c r="A214" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -8211,12 +5906,12 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="10"/>
+      <c r="A215" s="13"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
+      <c r="A216" s="13"/>
       <c r="B216" s="3" t="s">
         <v>12</v>
       </c>
@@ -8225,77 +5920,77 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
+      <c r="A217" s="13"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="10"/>
+      <c r="A218" s="13"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
+      <c r="A219" s="13"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
+      <c r="A220" s="13"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
+      <c r="A221" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C221" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
+      <c r="A222" s="13"/>
       <c r="B222" s="2"/>
-      <c r="C222" s="10"/>
+      <c r="C222" s="13"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
+      <c r="A223" s="13"/>
       <c r="B223" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C223" s="10"/>
+      <c r="C223" s="13"/>
     </row>
     <row r="224" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
+      <c r="A224" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="C224" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="10"/>
+      <c r="A225" s="13"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="10"/>
+      <c r="C225" s="13"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="10"/>
+      <c r="A226" s="13"/>
       <c r="B226" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C226" s="10"/>
+      <c r="C226" s="13"/>
     </row>
     <row r="227" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="10" t="s">
+      <c r="A227" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -8306,12 +6001,12 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="10"/>
+      <c r="A228" s="13"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
+      <c r="A229" s="13"/>
       <c r="B229" s="3" t="s">
         <v>12</v>
       </c>
@@ -8320,31 +6015,31 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="10"/>
+      <c r="A230" s="13"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
+      <c r="A231" s="13"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
+      <c r="A232" s="13"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="10"/>
+      <c r="A233" s="13"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="10" t="s">
+      <c r="A234" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -8355,12 +6050,12 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
+      <c r="A235" s="13"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A236" s="10"/>
+      <c r="A236" s="13"/>
       <c r="B236" s="3" t="s">
         <v>5</v>
       </c>
@@ -8369,7 +6064,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A237" s="10" t="s">
+      <c r="A237" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -8380,12 +6075,12 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="10"/>
+      <c r="A238" s="13"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A239" s="10"/>
+      <c r="A239" s="13"/>
       <c r="B239" s="3" t="s">
         <v>12</v>
       </c>
@@ -8394,19 +6089,19 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
+      <c r="A240" s="13"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="10"/>
+      <c r="A241" s="13"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="10" t="s">
+      <c r="A242" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -8417,12 +6112,12 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="10"/>
+      <c r="A243" s="13"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244" s="10"/>
+      <c r="A244" s="13"/>
       <c r="B244" s="3" t="s">
         <v>12</v>
       </c>
@@ -8431,19 +6126,19 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
+      <c r="A245" s="13"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="10"/>
+      <c r="A246" s="13"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" s="10" t="s">
+      <c r="A247" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -8454,12 +6149,12 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="10"/>
+      <c r="A248" s="13"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="10"/>
+      <c r="A249" s="13"/>
       <c r="B249" s="3" t="s">
         <v>12</v>
       </c>
@@ -8468,43 +6163,43 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
+      <c r="A250" s="13"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
+      <c r="A251" s="13"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="10"/>
+      <c r="A252" s="13"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
+      <c r="A253" s="13"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="10"/>
+      <c r="A254" s="13"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A255" s="10"/>
+      <c r="A255" s="13"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="10" t="s">
+      <c r="A256" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -8515,12 +6210,12 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
+      <c r="A257" s="13"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="10"/>
+      <c r="A258" s="13"/>
       <c r="B258" s="3" t="s">
         <v>12</v>
       </c>
@@ -8529,31 +6224,31 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
+      <c r="A259" s="13"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
+      <c r="A260" s="13"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="10"/>
+      <c r="A261" s="13"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
+      <c r="A262" s="13"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A263" s="10" t="s">
+      <c r="A263" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -8564,12 +6259,12 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="10"/>
+      <c r="A264" s="13"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="10"/>
+      <c r="A265" s="13"/>
       <c r="B265" s="3" t="s">
         <v>12</v>
       </c>
@@ -8578,7 +6273,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="10" t="s">
+      <c r="A266" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -8589,12 +6284,12 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="10"/>
+      <c r="A267" s="13"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="10"/>
+      <c r="A268" s="13"/>
       <c r="B268" s="3" t="s">
         <v>12</v>
       </c>
@@ -8603,31 +6298,31 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="10"/>
+      <c r="A269" s="13"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="10"/>
+      <c r="A270" s="13"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
+      <c r="A271" s="13"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
+      <c r="A272" s="13"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="10" t="s">
+      <c r="A273" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -8638,12 +6333,12 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="10"/>
+      <c r="A274" s="13"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="10"/>
+      <c r="A275" s="13"/>
       <c r="B275" s="3" t="s">
         <v>12</v>
       </c>
@@ -8652,7 +6347,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="10" t="s">
+      <c r="A276" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -8663,12 +6358,12 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="10"/>
+      <c r="A277" s="13"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="10"/>
+      <c r="A278" s="13"/>
       <c r="B278" s="3" t="s">
         <v>12</v>
       </c>
@@ -8677,7 +6372,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A279" s="10" t="s">
+      <c r="A279" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -8688,12 +6383,12 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="10"/>
+      <c r="A280" s="13"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="10"/>
+      <c r="A281" s="13"/>
       <c r="B281" s="3" t="s">
         <v>12</v>
       </c>
@@ -8702,19 +6397,19 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="10"/>
+      <c r="A282" s="13"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="10"/>
+      <c r="A283" s="13"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A284" s="10" t="s">
+      <c r="A284" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -8725,12 +6420,12 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="10"/>
+      <c r="A285" s="13"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="10"/>
+      <c r="A286" s="13"/>
       <c r="B286" s="3" t="s">
         <v>12</v>
       </c>
@@ -8739,7 +6434,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A287" s="10" t="s">
+      <c r="A287" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -8750,12 +6445,12 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="10"/>
+      <c r="A288" s="13"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="10"/>
+      <c r="A289" s="13"/>
       <c r="B289" s="3" t="s">
         <v>12</v>
       </c>
@@ -8764,78 +6459,78 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="10"/>
+      <c r="A290" s="13"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="10"/>
+      <c r="A291" s="13"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="10"/>
+      <c r="A292" s="13"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="10"/>
+      <c r="A293" s="13"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="10"/>
+      <c r="A294" s="13"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="10"/>
+      <c r="A295" s="13"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A296" s="10" t="s">
+      <c r="A296" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C296" s="10" t="s">
+      <c r="C296" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="10"/>
+      <c r="A297" s="13"/>
       <c r="B297" s="2"/>
-      <c r="C297" s="10"/>
+      <c r="C297" s="13"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="10"/>
+      <c r="A298" s="13"/>
       <c r="B298" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C298" s="10"/>
+      <c r="C298" s="13"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="10"/>
+      <c r="A299" s="13"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="10"/>
+      <c r="C299" s="13"/>
     </row>
     <row r="300" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A300" s="10"/>
+      <c r="A300" s="13"/>
       <c r="B300" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C300" s="10"/>
+      <c r="C300" s="13"/>
     </row>
     <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="10" t="s">
+      <c r="A301" s="13" t="s">
         <v>219</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -8846,12 +6541,12 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="10"/>
+      <c r="A302" s="13"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A303" s="10"/>
+      <c r="A303" s="13"/>
       <c r="B303" s="3" t="s">
         <v>12</v>
       </c>
@@ -8860,19 +6555,19 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="10"/>
+      <c r="A304" s="13"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="10"/>
+      <c r="A305" s="13"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A306" s="10" t="s">
+      <c r="A306" s="13" t="s">
         <v>219</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -8883,12 +6578,12 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="10"/>
+      <c r="A307" s="13"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="10"/>
+      <c r="A308" s="13"/>
       <c r="B308" s="3" t="s">
         <v>12</v>
       </c>
@@ -8897,7 +6592,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A309" s="10" t="s">
+      <c r="A309" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -8908,12 +6603,12 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="10"/>
+      <c r="A310" s="13"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="10"/>
+      <c r="A311" s="13"/>
       <c r="B311" s="3" t="s">
         <v>5</v>
       </c>
@@ -8922,53 +6617,53 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
+      <c r="A312" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C312" s="10" t="s">
+      <c r="C312" s="13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="10"/>
+      <c r="A313" s="13"/>
       <c r="B313" s="2"/>
-      <c r="C313" s="10"/>
+      <c r="C313" s="13"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="10"/>
+      <c r="A314" s="13"/>
       <c r="B314" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C314" s="10"/>
+      <c r="C314" s="13"/>
     </row>
     <row r="315" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="10" t="s">
+      <c r="A315" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C315" s="11" t="s">
+      <c r="C315" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="10"/>
+      <c r="A316" s="13"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="11"/>
+      <c r="C316" s="14"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="10"/>
+      <c r="A317" s="13"/>
       <c r="B317" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C317" s="11"/>
+      <c r="C317" s="14"/>
     </row>
     <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="10" t="s">
+      <c r="A318" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -8979,12 +6674,12 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="10"/>
+      <c r="A319" s="13"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="10"/>
+      <c r="A320" s="13"/>
       <c r="B320" s="3" t="s">
         <v>12</v>
       </c>
@@ -8993,19 +6688,19 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="10"/>
+      <c r="A321" s="13"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="10"/>
+      <c r="A322" s="13"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A323" s="10" t="s">
+      <c r="A323" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -9016,12 +6711,12 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="10"/>
+      <c r="A324" s="13"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="10"/>
+      <c r="A325" s="13"/>
       <c r="B325" s="3" t="s">
         <v>12</v>
       </c>
@@ -9030,19 +6725,19 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="10"/>
+      <c r="A326" s="13"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="10"/>
+      <c r="A327" s="13"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A328" s="10" t="s">
+      <c r="A328" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -9053,12 +6748,12 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="10"/>
+      <c r="A329" s="13"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="10"/>
+      <c r="A330" s="13"/>
       <c r="B330" s="3" t="s">
         <v>12</v>
       </c>
@@ -9067,155 +6762,217 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="10"/>
+      <c r="A331" s="13"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="10"/>
+      <c r="A332" s="13"/>
       <c r="B332" s="2"/>
       <c r="C332" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="10"/>
+      <c r="A333" s="13"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="10"/>
+      <c r="A334" s="13"/>
       <c r="B334" s="2"/>
       <c r="C334" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="10"/>
+      <c r="A335" s="13"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
     </row>
     <row r="336" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A336" s="10"/>
+      <c r="A336" s="13"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="10"/>
+      <c r="A337" s="13"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
     </row>
     <row r="338" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A338" s="10"/>
+      <c r="A338" s="13"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="10"/>
+      <c r="A339" s="13"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
     </row>
     <row r="340" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A340" s="10"/>
+      <c r="A340" s="13"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="10" t="s">
+      <c r="A341" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C341" s="10" t="s">
+      <c r="C341" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="10"/>
+      <c r="A342" s="13"/>
       <c r="B342" s="2"/>
-      <c r="C342" s="10"/>
+      <c r="C342" s="13"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="10"/>
+      <c r="A343" s="13"/>
       <c r="B343" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C343" s="10"/>
+      <c r="C343" s="13"/>
     </row>
     <row r="344" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="10" t="s">
+      <c r="A344" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C344" s="10" t="s">
+      <c r="C344" s="13" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="10"/>
+      <c r="A345" s="13"/>
       <c r="B345" s="2"/>
-      <c r="C345" s="10"/>
+      <c r="C345" s="13"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="10"/>
+      <c r="A346" s="13"/>
       <c r="B346" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C346" s="10"/>
+      <c r="C346" s="13"/>
     </row>
     <row r="347" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="10" t="s">
+      <c r="A347" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="11" t="s">
+      <c r="C347" s="14" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="10"/>
+      <c r="A348" s="13"/>
       <c r="B348" s="2"/>
-      <c r="C348" s="11"/>
+      <c r="C348" s="14"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="10"/>
+      <c r="A349" s="13"/>
       <c r="B349" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C349" s="11"/>
+      <c r="C349" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A347:A349"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A340"/>
+    <mergeCell ref="A341:A343"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="A344:A346"/>
+    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="A279:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A287:A295"/>
+    <mergeCell ref="A296:A300"/>
+    <mergeCell ref="C296:C300"/>
+    <mergeCell ref="A301:A305"/>
+    <mergeCell ref="A247:A255"/>
+    <mergeCell ref="A256:A262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="A266:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A85:A95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="C82:C84"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="A67:A69"/>
@@ -9230,87 +6987,25 @@
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A85:A95"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="A155:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="A247:A255"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="A266:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="A227:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="A279:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A287:A295"/>
-    <mergeCell ref="A296:A300"/>
-    <mergeCell ref="C296:C300"/>
-    <mergeCell ref="A301:A305"/>
-    <mergeCell ref="A347:A349"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="A318:A322"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A340"/>
-    <mergeCell ref="A341:A343"/>
-    <mergeCell ref="C341:C343"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" display="https://msdn.microsoft.com/en-us/library/dd239405.aspx"/>
